--- a/results/mimic_result_dataframe.xlsx
+++ b/results/mimic_result_dataframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\AF_model\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\atrial_fibrillation_prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{86F4C367-96A6-4F17-8DF7-55B9886E39ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D30AFC-086B-4FFE-8738-05AD26500AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mimic_result_dataframe" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>model</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>auc</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ESCE</t>
   </si>
   <si>
     <t>transfer</t>
@@ -91,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,16 +932,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="F2:M25"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,989 +981,1139 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>47109</v>
+      </c>
+      <c r="E2">
+        <v>1047</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.66583879938016</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.72492836676217698</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.99090191123045301</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.5997212290164201E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.79648062566654798</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.6505584682014997E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.120078998710381</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.75552604404226298</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.9288798390255802E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-2.3069608093614798E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1044</v>
+      </c>
+      <c r="E3">
+        <v>1047</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.66762452107279602</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.72492836676217698</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.70761421319796902</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.68625678119348998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.68703794972892995</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.70506270320483</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.39321138880098599</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.76011144777817996</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.6217841688042299E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.2444664036736599E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>47109</v>
+      </c>
+      <c r="E4">
+        <v>1047</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.67316224076078801</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.71537726838586402</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.99069040924711005</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.6389198563111599E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.80162792755216805</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8.7128482521956596E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.120028715805568</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.75388517065312299</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.4248912302600101E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1.8154646036962499E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1044</v>
+      </c>
+      <c r="E5">
+        <v>1047</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.68295019157088099</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.71537726838586402</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.70524233432245298</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.69351851851851798</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.69391727493917199</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.70427832628114695</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.39854409748775499</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.76081863159473995</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.71481617260976E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.53700937826393E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>7733</v>
+      </c>
+      <c r="E6">
+        <v>298</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.56756756756756699</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.75503355704697905</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.983639623487225</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.3042869151022696E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.71980319803198001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.116369278510473</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.122718477112899</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.73220278819007101</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.130116842288791</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-0.11528905799497401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>298</v>
+      </c>
+      <c r="E7">
+        <v>298</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.60738255033556998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.75503355704697905</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.71259842519685002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.65789473684210498</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.65579710144927505</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.36643238066253198</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.74929620287374399</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.3769737827632798E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8.0638821062858999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>39928</v>
+      </c>
+      <c r="E8">
+        <v>958</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.71553796834301697</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.56889352818371597</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.98575026739812999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.5786776442913499E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.82918547111491603</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.4752352072156104E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.4710762723869996E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.70463007735426897</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8.6572061705749395E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1.41680725749075E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>858</v>
+      </c>
+      <c r="E9">
+        <v>858</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.75407925407925402</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.58391608391608396</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.64442231075697198</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.70365168539325795</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.69495166487647597</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.638216560509554</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.34299765010300698</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.73882653865171299</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5.86362941962228E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-3.3203649461524903E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>53203</v>
+      </c>
+      <c r="E10">
+        <v>1253</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.652049696445689</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.67996807661612102</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.98857289410691895</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.3999173724437103E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.78579761028370798</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8.2650240093127006E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.103992814296878</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.74255232923381498</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5.61392635102766E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-5.1769913866581599E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1217</v>
+      </c>
+      <c r="E11">
+        <v>1253</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.67132292522596504</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.67996807661612102</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.67077175697865299</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.68051118210862604</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.67104722792607796</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.68023952095808304</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.35128697044155099</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.75290231956041698</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.2672455580424998E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1.37350984875709E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>53203</v>
+      </c>
+      <c r="E12">
+        <v>1253</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.65396688156682803</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.67996807661612102</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.98860601238847501</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.4232166960855503E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.78719866058802901</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.3061174750182806E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.10471779241286</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.74171734280596302</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.5128946429085897E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-4.6194528139507599E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1217</v>
+      </c>
+      <c r="E13">
+        <v>1253</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.67296631059983503</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.67996807661612102</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.67131147540983604</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.67213787443578099</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.68078306032760605</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.35292293112696599</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.75265509039603196</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4.0566663336210403E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-6.6145000103804896E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>13320</v>
+      </c>
+      <c r="E14">
+        <v>311</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.59294294294294203</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.729903536977492</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.98947632172387801</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.0184103381129398E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.74152661721904001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7.6174496644295195E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.7855831906410007E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.73892558153008303</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.105133027096815</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-9.3983177132237403E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>350</v>
+      </c>
+      <c r="E15">
+        <v>311</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.70857142857142796</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.729903536977492</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.74698795180722799</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.68996960486322101</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.70937499999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.43771560356859102</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.78232429949471705</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.25203452437332E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3.8027385941155498E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>45814</v>
+      </c>
+      <c r="E16">
+        <v>1144</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.83118697341423997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.44318181818181801</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.98354727897306005</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.1521659992719302E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.90097124131975204</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.108044752264251</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.1112003161981</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.71747394679795196</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7.1865975774086502E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7.1833613646490393E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>981</v>
+      </c>
+      <c r="E17">
+        <v>981</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.84505606523955101</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.45871559633027498</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.60955882352941104</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.74750830564783999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.70824434002562997</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.56854074542008803</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.32934309636326298</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.74519333181623104</v>
+      </c>
+      <c r="N17" s="1">
+        <v>7.4071799340481803E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-5.3142276056891098E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
         <v>52637</v>
       </c>
-      <c r="E2">
+      <c r="E18">
         <v>1365</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F18" s="1">
         <v>0.68113684290517995</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G18" s="1">
         <v>0.70989010989010903</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H18" s="1">
         <v>0.98907556070512204</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I18" s="1">
         <v>5.45823241142342E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J18" s="1">
         <v>0.80671871835834597</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K18" s="1">
         <v>0.10137043623810001</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L18" s="1">
         <v>0.130657604701758</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M18" s="1">
         <v>0.76816431790309403</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="N18" s="1">
+        <v>3.70839147834848E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-2.5482660457884498E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
         <v>1393</v>
       </c>
-      <c r="E3">
+      <c r="E19">
         <v>1365</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F19" s="1">
         <v>0.66188083273510401</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G19" s="1">
         <v>0.70989010989010903</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H19" s="1">
         <v>0.69954476479514405</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I19" s="1">
         <v>0.67291666666666605</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J19" s="1">
         <v>0.68019181113979998</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K19" s="1">
         <v>0.69090909090909003</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L19" s="1">
         <v>0.37211602688690198</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M19" s="1">
         <v>0.75855835956338402</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="N19" s="1">
+        <v>4.0691688176273E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.8225686793891399E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1.5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>52637</v>
+      </c>
+      <c r="E20">
+        <v>1365</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.68476546915667602</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.706959706959707</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.98902425639336999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5.4960701674450302E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.80924102782860496</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.101992284521481</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.131263153419339</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.76889361311535798</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.4165568518425497E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-1.89035191110461E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1393</v>
+      </c>
+      <c r="E21">
+        <v>1365</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.67767408470926005</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.706959706959707</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.702380952380952</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.68246110325318199</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.68980635732553797</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.69449442245411996</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.38473790955952902</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.75889731230721902</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3.9982722677714098E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.14798191114971E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1.5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>13191</v>
+      </c>
+      <c r="E22">
+        <v>344</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.64680463952695</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.99002088651659303</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5.2471018913971899E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.78242927231876702</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9.8080212887283705E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.129849856438844</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.79518099902505701</v>
+      </c>
+      <c r="N22" s="1">
+        <v>5.9917611695703699E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-4.6658352781344899E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>378</v>
+      </c>
+      <c r="E23">
+        <v>344</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.66402116402116396</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.74480712166172103</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.67012987012987002</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.70209790209790202</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.70781893004115204</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.414478824956106</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.80609388458225595</v>
+      </c>
+      <c r="N23" s="1">
+        <v>6.9479051259774799E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.6447737148671499E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1.5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D24">
+        <v>45349</v>
+      </c>
+      <c r="E24">
+        <v>1251</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.72687380096584198</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.58992805755395605</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.98467558848129999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.62328558366351E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.83635902315255295</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.102678260869565</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.113841430020338</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.73567836506776396</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2.49859994225652E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.4791341870206601E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>52637</v>
-      </c>
-      <c r="E4">
-        <v>1365</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.68476546915667602</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.706959706959707</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.98902425639336999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5.4960701674450302E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.80924102782860496</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.101992284521481</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.131263153419339</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.76889361311535798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1393</v>
-      </c>
-      <c r="E5">
-        <v>1365</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.67767408470926005</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.706959706959707</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.702380952380952</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.68246110325318199</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.68980635732553797</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.69449442245411996</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.38473790955952902</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.75889731230721902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>13191</v>
-      </c>
-      <c r="E6">
-        <v>344</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.64680463952695</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.99002088651659303</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5.2471018913971899E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.78242927231876702</v>
-      </c>
-      <c r="K6" s="1">
-        <v>9.8080212887283705E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.129849856438844</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.79518099902505701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>1393</v>
-      </c>
-      <c r="E7">
-        <v>1365</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.67767408470926005</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.706959706959707</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.702380952380952</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.68246110325318199</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.68980635732553797</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.69449442245411996</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.38473790955952902</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.75889731230721902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>45349</v>
-      </c>
-      <c r="E8">
-        <v>1251</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.72687380096584198</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.58992805755395605</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.98467558848129999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5.62328558366351E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.83635902315255295</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.102678260869565</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.113841430020338</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.73567836506776396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
+      <c r="D25">
         <v>1070</v>
       </c>
-      <c r="E9">
+      <c r="E25">
         <v>1070</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F25" s="1">
         <v>0.76728971962616799</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G25" s="1">
         <v>0.60280373831775702</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H25" s="1">
         <v>0.658908507223114</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I25" s="1">
         <v>0.721476510067114</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J25" s="1">
         <v>0.70898100172711498</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K25" s="1">
         <v>0.65682281059063097</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L25" s="1">
         <v>0.37520395306952697</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M25" s="1">
         <v>0.76018298541357299</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>47109</v>
-      </c>
-      <c r="E10">
-        <v>1047</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.66583879938016</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.72492836676217698</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.99090191123045301</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4.5997212290164201E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.79648062566654798</v>
-      </c>
-      <c r="K10" s="1">
-        <v>8.6505584682014997E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.120078998710381</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.75552604404226298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>1044</v>
-      </c>
-      <c r="E11">
-        <v>1047</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.66762452107279602</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.72492836676217698</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.70761421319796902</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.68625678119348998</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.68703794972892995</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.70506270320483</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.39321138880098599</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.76011144777817996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>47109</v>
-      </c>
-      <c r="E12">
-        <v>1047</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.67316224076078801</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.71537726838586402</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.99069040924711005</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.6389198563111599E-2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.80162792755216805</v>
-      </c>
-      <c r="K12" s="1">
-        <v>8.7128482521956596E-2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.120028715805568</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.75388517065312299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>1044</v>
-      </c>
-      <c r="E13">
-        <v>1047</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.68295019157088099</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.71537726838586402</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.70524233432245298</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.69351851851851798</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.69391727493917199</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.70427832628114695</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.39854409748775499</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.76081863159473995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>7733</v>
-      </c>
-      <c r="E14">
-        <v>298</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.56756756756756699</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.75503355704697905</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.983639623487225</v>
-      </c>
-      <c r="I14" s="1">
-        <v>6.3042869151022696E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.71980319803198001</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.116369278510473</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.122718477112899</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.73220278819007101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>1044</v>
-      </c>
-      <c r="E15">
-        <v>1047</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.68295019157088099</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.71537726838586402</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.70524233432245298</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.69351851851851798</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.69391727493917199</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.70427832628114695</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.39854409748775499</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.76081863159473995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>39928</v>
-      </c>
-      <c r="E16">
-        <v>958</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.71553796834301697</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.56889352818371597</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.98575026739812999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4.5786776442913499E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.82918547111491603</v>
-      </c>
-      <c r="K16" s="1">
-        <v>8.4752352072156104E-2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>9.4710762723869996E-2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.70463007735426897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>858</v>
-      </c>
-      <c r="E17">
-        <v>858</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.75407925407925402</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.58391608391608396</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.64442231075697198</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.70365168539325795</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.69495166487647597</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.638216560509554</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.34299765010300698</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.73882653865171299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>53203</v>
-      </c>
-      <c r="E18">
-        <v>1253</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.652049696445689</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.67996807661612102</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.98857289410691895</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4.3999173724437103E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.78579761028370798</v>
-      </c>
-      <c r="K18" s="1">
-        <v>8.2650240093127006E-2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.103992814296878</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.74255232923381498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>1217</v>
-      </c>
-      <c r="E19">
-        <v>1253</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.67132292522596504</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.67996807661612102</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.67077175697865299</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.68051118210862604</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.67104722792607796</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.68023952095808304</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.35128697044155099</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.75290231956041698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>53203</v>
-      </c>
-      <c r="E20">
-        <v>1253</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.65464353513899498</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.67996807661612102</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.98861765540732305</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4.4314990117549101E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.78769237727997399</v>
-      </c>
-      <c r="K20" s="1">
-        <v>8.32071878509692E-2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.104974499753213</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.74148227364300601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>1217</v>
-      </c>
-      <c r="E21">
-        <v>1253</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.67214461791290003</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.67996807661612102</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.67104183757178004</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.68105515587529897</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.67159277504104997</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.68051118210862604</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.35210484390053198</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.75099629418565494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>13320</v>
-      </c>
-      <c r="E22">
-        <v>311</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.58993993993993998</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.73633440514469395</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.98967254408060401</v>
-      </c>
-      <c r="I22" s="1">
-        <v>4.0238973818309598E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.73922859830667897</v>
-      </c>
-      <c r="K22" s="1">
-        <v>7.6307897367544106E-2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>9.8789477744117699E-2</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.73637833975454503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>1217</v>
-      </c>
-      <c r="E23">
-        <v>1253</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.67214461791290003</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.67996807661612102</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.67104183757178004</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.68105515587529897</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.67159277504104997</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.68051118210862604</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.35210484390053198</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.75099629418565494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>45814</v>
-      </c>
-      <c r="E24">
-        <v>1144</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.81383419915309696</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.46066433566433501</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.98372117566355299</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5.8193462897526499E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.89074967748100697</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.103333333333333</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.107263725799632</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.71322529513529997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>981</v>
-      </c>
-      <c r="E25">
-        <v>981</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.83384301732925503</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.47502548419979601</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.61365341335333801</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.74085850556438704</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.70700086430423503</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.57888198757763898</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.33090416312024001</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.74289325939018702</v>
+      <c r="N25" s="1">
+        <v>2.94385836850341E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.09745790168644E-2</v>
       </c>
     </row>
   </sheetData>
